--- a/example notebooks/3_PAR_battery_design_parameters.xlsx
+++ b/example notebooks/3_PAR_battery_design_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model/example notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A978ED5F03521E0E623554765853267AA193F3B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA95756-2858-4D59-A21F-69D3BF4C2E9A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_868831A4C656B40F62355476585DCE3A8745F629" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04444ED6-AA3E-4056-A400-806B21C5FB12}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
-  <si>
-    <t>result_1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+  <si>
+    <t>('NMC622-G (Energy)', 6, 10)</t>
+  </si>
+  <si>
+    <t>('NMC622-G (Energy)', 6, 12)</t>
+  </si>
+  <si>
+    <t>('NMC622-G (Energy)', 8, 10)</t>
+  </si>
+  <si>
+    <t>('NMC622-G (Energy)', 8, 12)</t>
+  </si>
+  <si>
+    <t>('NMC811-G (Energy)', 6, 10)</t>
+  </si>
+  <si>
+    <t>('NMC811-G (Energy)', 6, 12)</t>
+  </si>
+  <si>
+    <t>('NMC811-G (Energy)', 8, 10)</t>
+  </si>
+  <si>
+    <t>('NMC811-G (Energy)', 8, 12)</t>
   </si>
   <si>
     <t>electrode_pair</t>
@@ -31,6 +52,9 @@
     <t>NMC622-G (Energy)</t>
   </si>
   <si>
+    <t>NMC811-G (Energy)</t>
+  </si>
+  <si>
     <t>cell_capacity_ah</t>
   </si>
   <si>
@@ -154,7 +178,16 @@
     <t>charge_time</t>
   </si>
   <si>
-    <t>pack_energy</t>
+    <t>glider_weight</t>
+  </si>
+  <si>
+    <t>transmission_weight</t>
+  </si>
+  <si>
+    <t>motor_controller_weight</t>
+  </si>
+  <si>
+    <t>vehicle_weight</t>
   </si>
   <si>
     <t>available_energy</t>
@@ -175,6 +208,21 @@
     <t>EV</t>
   </si>
   <si>
+    <t>A_coefficient</t>
+  </si>
+  <si>
+    <t>B_coefficient</t>
+  </si>
+  <si>
+    <t>C_coefficient</t>
+  </si>
+  <si>
+    <t>vehicle_range</t>
+  </si>
+  <si>
+    <t>motor_power</t>
+  </si>
+  <si>
     <t>modules_per_row</t>
   </si>
   <si>
@@ -185,6 +233,12 @@
   </si>
   <si>
     <t>silicon_anode</t>
+  </si>
+  <si>
+    <t>positive_foil_thickness</t>
+  </si>
+  <si>
+    <t>negative_foil_thickness</t>
   </si>
   <si>
     <t>graphite_type</t>
@@ -258,7 +312,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B1B91400-3061-44B8-9AC7-A843E65D786F}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D0464D33-85FD-48EE-B0E7-298046C1FAD3}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -556,434 +610,1834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>77.621492679314287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83.988262441784741</v>
+      </c>
+      <c r="C3">
+        <v>84.012730766434217</v>
+      </c>
+      <c r="D3">
+        <v>84.053916723338688</v>
+      </c>
+      <c r="E3">
+        <v>84.078389840727681</v>
+      </c>
+      <c r="F3">
+        <v>83.485818456103843</v>
+      </c>
+      <c r="G3">
+        <v>83.506197455051904</v>
+      </c>
+      <c r="H3">
+        <v>83.541787071867176</v>
+      </c>
+      <c r="I3">
+        <v>83.562253142321339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>77.621492679275832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83.988262441784741</v>
+      </c>
+      <c r="C4">
+        <v>84.012730766434217</v>
+      </c>
+      <c r="D4">
+        <v>84.053916723338688</v>
+      </c>
+      <c r="E4">
+        <v>84.078389840727681</v>
+      </c>
+      <c r="F4">
+        <v>83.485818456103843</v>
+      </c>
+      <c r="G4">
+        <v>83.506197455051904</v>
+      </c>
+      <c r="H4">
+        <v>83.541787071867176</v>
+      </c>
+      <c r="I4">
+        <v>83.562253142321339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>15.48561883546083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16.183478842042131</v>
+      </c>
+      <c r="C5">
+        <v>16.20802479153679</v>
+      </c>
+      <c r="D5">
+        <v>16.21465991561552</v>
+      </c>
+      <c r="E5">
+        <v>16.239279059440939</v>
+      </c>
+      <c r="F5">
+        <v>15.457507017686099</v>
+      </c>
+      <c r="G5">
+        <v>15.47965861603252</v>
+      </c>
+      <c r="H5">
+        <v>15.48520646997954</v>
+      </c>
+      <c r="I5">
+        <v>15.507219666320429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>2.3744615547706611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.481466755779794</v>
+      </c>
+      <c r="C6">
+        <v>2.485230468035641</v>
+      </c>
+      <c r="D6">
+        <v>2.4862478537277131</v>
+      </c>
+      <c r="E6">
+        <v>2.4900227891142759</v>
+      </c>
+      <c r="F6">
+        <v>2.370151076045202</v>
+      </c>
+      <c r="G6">
+        <v>2.3735476544583198</v>
+      </c>
+      <c r="H6">
+        <v>2.3743983253968621</v>
+      </c>
+      <c r="I6">
+        <v>2.3777736821691309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>1.085140401358959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.134042295153471</v>
+      </c>
+      <c r="C7">
+        <v>1.135762329836578</v>
+      </c>
+      <c r="D7">
+        <v>1.136227280012762</v>
+      </c>
+      <c r="E7">
+        <v>1.1379524437208239</v>
+      </c>
+      <c r="F7">
+        <v>1.083170491757856</v>
+      </c>
+      <c r="G7">
+        <v>1.084722744501242</v>
+      </c>
+      <c r="H7">
+        <v>1.0851115052296769</v>
+      </c>
+      <c r="I7">
+        <v>1.086654059580676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>533.57966930892599</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>533.57966930892599</v>
+      </c>
+      <c r="D8">
+        <v>533.57966930892599</v>
+      </c>
+      <c r="E8">
+        <v>533.57966930892599</v>
+      </c>
+      <c r="F8">
+        <v>534.70150338682481</v>
+      </c>
+      <c r="G8">
+        <v>534.70150338682481</v>
+      </c>
+      <c r="H8">
+        <v>534.70150338682481</v>
+      </c>
+      <c r="I8">
+        <v>534.70150338682481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>155.24298535855169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167.97652488356951</v>
+      </c>
+      <c r="C9">
+        <v>168.02546153286841</v>
+      </c>
+      <c r="D9">
+        <v>168.1078334466774</v>
+      </c>
+      <c r="E9">
+        <v>168.15677968145539</v>
+      </c>
+      <c r="F9">
+        <v>166.97163691220771</v>
+      </c>
+      <c r="G9">
+        <v>167.01239491010381</v>
+      </c>
+      <c r="H9">
+        <v>167.08357414373441</v>
+      </c>
+      <c r="I9">
+        <v>167.12450628464271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>860.83410593775284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>770.89571667455778</v>
+      </c>
+      <c r="C10">
+        <v>787.73510031800322</v>
+      </c>
+      <c r="D10">
+        <v>798.23511313903839</v>
+      </c>
+      <c r="E10">
+        <v>816.34312132038565</v>
+      </c>
+      <c r="F10">
+        <v>701.11562727699265</v>
+      </c>
+      <c r="G10">
+        <v>716.26559716464521</v>
+      </c>
+      <c r="H10">
+        <v>725.68184423210801</v>
+      </c>
+      <c r="I10">
+        <v>741.96148019512066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>82.000000000041638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88.57903825503189</v>
+      </c>
+      <c r="C11">
+        <v>88.615849277767012</v>
+      </c>
+      <c r="D11">
+        <v>88.665765532583706</v>
+      </c>
+      <c r="E11">
+        <v>88.702632828957476</v>
+      </c>
+      <c r="F11">
+        <v>88.119538989136956</v>
+      </c>
+      <c r="G11">
+        <v>88.152680788998367</v>
+      </c>
+      <c r="H11">
+        <v>88.197089512223585</v>
+      </c>
+      <c r="I11">
+        <v>88.230373815851266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>77.080000000039135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83.264295959729964</v>
+      </c>
+      <c r="C12">
+        <v>83.298898321100992</v>
+      </c>
+      <c r="D12">
+        <v>83.345819600628673</v>
+      </c>
+      <c r="E12">
+        <v>83.38047485922003</v>
+      </c>
+      <c r="F12">
+        <v>82.832366649788753</v>
+      </c>
+      <c r="G12">
+        <v>82.863519941658467</v>
+      </c>
+      <c r="H12">
+        <v>82.905264141490164</v>
+      </c>
+      <c r="I12">
+        <v>82.936551386900192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>10.49797690167458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.7029135996604214</v>
+      </c>
+      <c r="C13">
+        <v>8.8893251798427375</v>
+      </c>
+      <c r="D13">
+        <v>9.002743148320258</v>
+      </c>
+      <c r="E13">
+        <v>9.2031442053643957</v>
+      </c>
+      <c r="F13">
+        <v>7.95641506208315</v>
+      </c>
+      <c r="G13">
+        <v>8.1252843447732861</v>
+      </c>
+      <c r="H13">
+        <v>8.2279568208600899</v>
+      </c>
+      <c r="I13">
+        <v>8.4093657105397135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>310.42431252810132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325.73351368767032</v>
+      </c>
+      <c r="C14">
+        <v>324.50052535594563</v>
+      </c>
+      <c r="D14">
+        <v>321.47125670345059</v>
+      </c>
+      <c r="E14">
+        <v>320.26946251872857</v>
+      </c>
+      <c r="F14">
+        <v>349.00153235329168</v>
+      </c>
+      <c r="G14">
+        <v>347.73767223155869</v>
+      </c>
+      <c r="H14">
+        <v>344.6130442022685</v>
+      </c>
+      <c r="I14">
+        <v>343.37978576763243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>625.32691245061335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>648.5522852687335</v>
+      </c>
+      <c r="C15">
+        <v>645.93827373591364</v>
+      </c>
+      <c r="D15">
+        <v>645.95831543228485</v>
+      </c>
+      <c r="E15">
+        <v>643.36548574852361</v>
+      </c>
+      <c r="F15">
+        <v>680.88018254338783</v>
+      </c>
+      <c r="G15">
+        <v>678.28439127171737</v>
+      </c>
+      <c r="H15">
+        <v>678.3020510157811</v>
+      </c>
+      <c r="I15">
+        <v>675.71938463483218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>157.79475463036019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167.11943655762559</v>
+      </c>
+      <c r="C16">
+        <v>166.540093991661</v>
+      </c>
+      <c r="D16">
+        <v>165.7616423860479</v>
+      </c>
+      <c r="E16">
+        <v>165.1919036315056</v>
+      </c>
+      <c r="F16">
+        <v>174.75042874236149</v>
+      </c>
+      <c r="G16">
+        <v>174.17402850909309</v>
+      </c>
+      <c r="H16">
+        <v>173.40828047727729</v>
+      </c>
+      <c r="I16">
+        <v>172.83925270277049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>331.44839705413818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348.39117321228429</v>
+      </c>
+      <c r="C17">
+        <v>347.12890037279249</v>
+      </c>
+      <c r="D17">
+        <v>347.18137564767801</v>
+      </c>
+      <c r="E17">
+        <v>345.92881423346932</v>
+      </c>
+      <c r="F17">
+        <v>360.77288758179981</v>
+      </c>
+      <c r="G17">
+        <v>359.53679767522988</v>
+      </c>
+      <c r="H17">
+        <v>359.58474793951291</v>
+      </c>
+      <c r="I17">
+        <v>358.35249106257379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>82.000000000041638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88.57903825503189</v>
+      </c>
+      <c r="C18">
+        <v>88.615849277767012</v>
+      </c>
+      <c r="D18">
+        <v>88.665765532583706</v>
+      </c>
+      <c r="E18">
+        <v>88.702632828957476</v>
+      </c>
+      <c r="F18">
+        <v>88.119538989136956</v>
+      </c>
+      <c r="G18">
+        <v>88.152680788998367</v>
+      </c>
+      <c r="H18">
+        <v>88.197089512223585</v>
+      </c>
+      <c r="I18">
+        <v>88.230373815851266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>496.19294208025201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410.01900825599938</v>
+      </c>
+      <c r="C19">
+        <v>410.01900825599932</v>
+      </c>
+      <c r="D19">
+        <v>410.01900825599938</v>
+      </c>
+      <c r="E19">
+        <v>410.01900825599938</v>
+      </c>
+      <c r="F19">
+        <v>410.01900825599961</v>
+      </c>
+      <c r="G19">
+        <v>410.01900825599972</v>
+      </c>
+      <c r="H19">
+        <v>410.01900825599972</v>
+      </c>
+      <c r="I19">
+        <v>410.01900825599949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>288</v>
+      </c>
+      <c r="D20">
+        <v>288</v>
+      </c>
+      <c r="E20">
+        <v>288</v>
+      </c>
+      <c r="F20">
+        <v>288</v>
+      </c>
+      <c r="G20">
+        <v>288</v>
+      </c>
+      <c r="H20">
+        <v>288</v>
+      </c>
+      <c r="I20">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>455.31739727394728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>474.23486438684171</v>
+      </c>
+      <c r="C24">
+        <v>476.3518955514869</v>
+      </c>
+      <c r="D24">
+        <v>476.60543115162631</v>
+      </c>
+      <c r="E24">
+        <v>478.7251720847093</v>
+      </c>
+      <c r="F24">
+        <v>449.3751313882035</v>
+      </c>
+      <c r="G24">
+        <v>451.26454496489458</v>
+      </c>
+      <c r="H24">
+        <v>451.48012405544148</v>
+      </c>
+      <c r="I24">
+        <v>453.37675905794993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>3.213608461132436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.1899182006321909</v>
+      </c>
+      <c r="C25">
+        <v>3.1970516348440241</v>
+      </c>
+      <c r="D25">
+        <v>3.1972368572244321</v>
+      </c>
+      <c r="E25">
+        <v>3.2043551866694049</v>
+      </c>
+      <c r="F25">
+        <v>3.1844547248982571</v>
+      </c>
+      <c r="G25">
+        <v>3.1911841764992892</v>
+      </c>
+      <c r="H25">
+        <v>3.1913749176350281</v>
+      </c>
+      <c r="I25">
+        <v>3.1981584143890478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>140</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>140</v>
+      </c>
+      <c r="D26">
+        <v>140</v>
+      </c>
+      <c r="E26">
+        <v>140</v>
+      </c>
+      <c r="F26">
+        <v>140</v>
+      </c>
+      <c r="G26">
+        <v>140</v>
+      </c>
+      <c r="H26">
+        <v>140</v>
+      </c>
+      <c r="I26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>367.9155008043067</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345.1446423755682</v>
+      </c>
+      <c r="C27">
+        <v>345.1446423755682</v>
+      </c>
+      <c r="D27">
+        <v>345.1446423755682</v>
+      </c>
+      <c r="E27">
+        <v>345.1446423755682</v>
+      </c>
+      <c r="F27">
+        <v>345.54306745375879</v>
+      </c>
+      <c r="G27">
+        <v>345.54306745375879</v>
+      </c>
+      <c r="H27">
+        <v>345.54306745375879</v>
+      </c>
+      <c r="I27">
+        <v>345.54306745375879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>293.72204632603041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300.31674870206388</v>
+      </c>
+      <c r="C29">
+        <v>300.52325010004432</v>
+      </c>
+      <c r="D29">
+        <v>300.58404621649572</v>
+      </c>
+      <c r="E29">
+        <v>300.79104896316619</v>
+      </c>
+      <c r="F29">
+        <v>293.53969416865971</v>
+      </c>
+      <c r="G29">
+        <v>293.72998436203818</v>
+      </c>
+      <c r="H29">
+        <v>293.78190563530819</v>
+      </c>
+      <c r="I29">
+        <v>293.97054575815349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>77.170706847189066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79.560535341227322</v>
+      </c>
+      <c r="C30">
+        <v>79.571677675978592</v>
+      </c>
+      <c r="D30">
+        <v>79.590445066921063</v>
+      </c>
+      <c r="E30">
+        <v>79.60187667731347</v>
+      </c>
+      <c r="F30">
+        <v>77.345702882029798</v>
+      </c>
+      <c r="G30">
+        <v>77.354708680823606</v>
+      </c>
+      <c r="H30">
+        <v>77.370473157914674</v>
+      </c>
+      <c r="I30">
+        <v>77.378491844421319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>20.087469076859669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19.847976115992481</v>
+      </c>
+      <c r="C31">
+        <v>19.920090446711871</v>
+      </c>
+      <c r="D31">
+        <v>19.921962923221891</v>
+      </c>
+      <c r="E31">
+        <v>19.993924554677442</v>
+      </c>
+      <c r="F31">
+        <v>19.792743967737611</v>
+      </c>
+      <c r="G31">
+        <v>19.860774299819742</v>
+      </c>
+      <c r="H31">
+        <v>19.86270256731839</v>
+      </c>
+      <c r="I31">
+        <v>19.931279260370641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>301.72204632603041</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308.31674870206388</v>
+      </c>
+      <c r="C32">
+        <v>308.52325010004432</v>
+      </c>
+      <c r="D32">
+        <v>308.58404621649572</v>
+      </c>
+      <c r="E32">
+        <v>308.79104896316619</v>
+      </c>
+      <c r="F32">
+        <v>301.53969416865971</v>
+      </c>
+      <c r="G32">
+        <v>301.72998436203818</v>
+      </c>
+      <c r="H32">
+        <v>301.78190563530819</v>
+      </c>
+      <c r="I32">
+        <v>301.97054575815349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>492.29925784463222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486.55142678381952</v>
+      </c>
+      <c r="C33">
+        <v>488.28217072108492</v>
+      </c>
+      <c r="D33">
+        <v>488.32711015732542</v>
+      </c>
+      <c r="E33">
+        <v>490.05418931225859</v>
+      </c>
+      <c r="F33">
+        <v>485.22585522570267</v>
+      </c>
+      <c r="G33">
+        <v>486.8585831956737</v>
+      </c>
+      <c r="H33">
+        <v>486.90486161564138</v>
+      </c>
+      <c r="I33">
+        <v>488.55070224889539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>80.960535341227313</v>
+      </c>
+      <c r="C34">
+        <v>80.971677675978583</v>
+      </c>
+      <c r="D34">
+        <v>80.990445066921055</v>
+      </c>
+      <c r="E34">
+        <v>81.001876677313462</v>
+      </c>
+      <c r="F34">
+        <v>78.745702882029789</v>
+      </c>
+      <c r="G34">
+        <v>78.754708680823597</v>
+      </c>
+      <c r="H34">
+        <v>78.770473157914665</v>
+      </c>
+      <c r="I34">
+        <v>78.77849184442131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>3003.308560702917</v>
+      </c>
+      <c r="C35">
+        <v>3013.6930243265092</v>
+      </c>
+      <c r="D35">
+        <v>3013.962660943952</v>
+      </c>
+      <c r="E35">
+        <v>3024.325135873552</v>
+      </c>
+      <c r="F35">
+        <v>2995.3551313542171</v>
+      </c>
+      <c r="G35">
+        <v>3005.1514991740419</v>
+      </c>
+      <c r="H35">
+        <v>3005.4291696938481</v>
+      </c>
+      <c r="I35">
+        <v>3015.3042134933721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>669.63349740412787</v>
+      </c>
+      <c r="C36">
+        <v>670.04650020008853</v>
+      </c>
+      <c r="D36">
+        <v>670.16809243299144</v>
+      </c>
+      <c r="E36">
+        <v>670.58209792633249</v>
+      </c>
+      <c r="F36">
+        <v>656.0793883373193</v>
+      </c>
+      <c r="G36">
+        <v>656.45996872407636</v>
+      </c>
+      <c r="H36">
+        <v>656.56381127061638</v>
+      </c>
+      <c r="I36">
+        <v>656.94109151630698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>122.9605353412273</v>
+      </c>
+      <c r="C37">
+        <v>122.9716776759786</v>
+      </c>
+      <c r="D37">
+        <v>122.9904450669211</v>
+      </c>
+      <c r="E37">
+        <v>123.0018766773135</v>
+      </c>
+      <c r="F37">
+        <v>120.7457028820298</v>
+      </c>
+      <c r="G37">
+        <v>120.7547086808236</v>
+      </c>
+      <c r="H37">
+        <v>120.77047315791469</v>
+      </c>
+      <c r="I37">
+        <v>120.7784918444213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>251.45167187303639</v>
+      </c>
+      <c r="C38">
+        <v>252.48225734762991</v>
+      </c>
+      <c r="D38">
+        <v>252.5874480368507</v>
+      </c>
+      <c r="E38">
+        <v>253.618746225319</v>
+      </c>
+      <c r="F38">
+        <v>241.45210990711479</v>
+      </c>
+      <c r="G38">
+        <v>242.38402944843159</v>
+      </c>
+      <c r="H38">
+        <v>242.4748344238993</v>
+      </c>
+      <c r="I38">
+        <v>243.41113572905209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>116.5325859252561</v>
+      </c>
+      <c r="C39">
+        <v>116.53258648869711</v>
+      </c>
+      <c r="D39">
+        <v>116.5325868018313</v>
+      </c>
+      <c r="E39">
+        <v>116.5325873703022</v>
+      </c>
+      <c r="F39">
+        <v>116.5353546888222</v>
+      </c>
+      <c r="G39">
+        <v>116.53535577848341</v>
+      </c>
+      <c r="H39">
+        <v>116.5353563909046</v>
+      </c>
+      <c r="I39">
+        <v>116.5353574897222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>529.97360050371958</v>
+      </c>
+      <c r="C40">
+        <v>532.03822688023536</v>
+      </c>
+      <c r="D40">
+        <v>534.83788873839444</v>
+      </c>
+      <c r="E40">
+        <v>536.9056713444852</v>
+      </c>
+      <c r="F40">
+        <v>504.20158348636812</v>
+      </c>
+      <c r="G40">
+        <v>506.06041350723717</v>
+      </c>
+      <c r="H40">
+        <v>508.55117346188121</v>
+      </c>
+      <c r="I40">
+        <v>510.41799611682859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>78.570706847189058</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>3037.795547067793</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>656.44409265206082</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>120.5707068471891</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>244.5989940179071</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>105.83949989464691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>519.66239430537189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <v>34</v>
+      </c>
+      <c r="F42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>34</v>
+      </c>
+      <c r="H42">
+        <v>34</v>
+      </c>
+      <c r="I42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1373.4648322871201</v>
+      </c>
+      <c r="C43">
+        <v>1374.6416693217341</v>
+      </c>
+      <c r="D43">
+        <v>1376.237476580885</v>
+      </c>
+      <c r="E43">
+        <v>1377.4161126663571</v>
+      </c>
+      <c r="F43">
+        <v>1358.77478258723</v>
+      </c>
+      <c r="G43">
+        <v>1359.834315699125</v>
+      </c>
+      <c r="H43">
+        <v>1361.254048873272</v>
+      </c>
+      <c r="I43">
+        <v>1362.3181377865919</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B44">
+        <v>113.724</v>
+      </c>
+      <c r="C44">
+        <v>113.724</v>
+      </c>
+      <c r="D44">
+        <v>113.724</v>
+      </c>
+      <c r="E44">
+        <v>113.724</v>
+      </c>
+      <c r="F44">
+        <v>113.724</v>
+      </c>
+      <c r="G44">
+        <v>113.724</v>
+      </c>
+      <c r="H44">
+        <v>113.724</v>
+      </c>
+      <c r="I44">
+        <v>113.724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>174.96</v>
+      </c>
+      <c r="C45">
+        <v>174.96</v>
+      </c>
+      <c r="D45">
+        <v>174.96</v>
+      </c>
+      <c r="E45">
+        <v>174.96</v>
+      </c>
+      <c r="F45">
+        <v>174.96</v>
+      </c>
+      <c r="G45">
+        <v>174.96</v>
+      </c>
+      <c r="H45">
+        <v>174.96</v>
+      </c>
+      <c r="I45">
+        <v>174.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>2192.122432790839</v>
+      </c>
+      <c r="C46">
+        <v>2195.36389620197</v>
+      </c>
+      <c r="D46">
+        <v>2199.7593653192789</v>
+      </c>
+      <c r="E46">
+        <v>2203.005784010842</v>
+      </c>
+      <c r="F46">
+        <v>2151.6603660735982</v>
+      </c>
+      <c r="G46">
+        <v>2154.5787292063619</v>
+      </c>
+      <c r="H46">
+        <v>2158.489222335153</v>
+      </c>
+      <c r="I46">
+        <v>2161.4201339034212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>94</v>
+      </c>
+      <c r="D47">
+        <v>94</v>
+      </c>
+      <c r="E47">
+        <v>94</v>
+      </c>
+      <c r="F47">
+        <v>94</v>
+      </c>
+      <c r="G47">
+        <v>94</v>
+      </c>
+      <c r="H47">
+        <v>94</v>
+      </c>
+      <c r="I47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>34</v>
+      </c>
+      <c r="D48">
+        <v>34</v>
+      </c>
+      <c r="E48">
+        <v>34</v>
+      </c>
+      <c r="F48">
+        <v>34</v>
+      </c>
+      <c r="G48">
+        <v>34</v>
+      </c>
+      <c r="H48">
+        <v>34</v>
+      </c>
+      <c r="I48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49">
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>126</v>
+      </c>
+      <c r="C50">
+        <v>126</v>
+      </c>
+      <c r="D50">
+        <v>126</v>
+      </c>
+      <c r="E50">
+        <v>126</v>
+      </c>
+      <c r="F50">
+        <v>126</v>
+      </c>
+      <c r="G50">
+        <v>126</v>
+      </c>
+      <c r="H50">
+        <v>126</v>
+      </c>
+      <c r="I50">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>135.9999272</v>
+      </c>
+      <c r="C52">
+        <v>135.9999272</v>
+      </c>
+      <c r="D52">
+        <v>135.9999272</v>
+      </c>
+      <c r="E52">
+        <v>135.9999272</v>
+      </c>
+      <c r="F52">
+        <v>135.9999272</v>
+      </c>
+      <c r="G52">
+        <v>135.9999272</v>
+      </c>
+      <c r="H52">
+        <v>135.9999272</v>
+      </c>
+      <c r="I52">
+        <v>135.9999272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>3.7323906889999998</v>
+      </c>
+      <c r="C53">
+        <v>3.7323906889999998</v>
+      </c>
+      <c r="D53">
+        <v>3.7323906889999998</v>
+      </c>
+      <c r="E53">
+        <v>3.7323906889999998</v>
+      </c>
+      <c r="F53">
+        <v>3.7323906889999998</v>
+      </c>
+      <c r="G53">
+        <v>3.7323906889999998</v>
+      </c>
+      <c r="H53">
+        <v>3.7323906889999998</v>
+      </c>
+      <c r="I53">
+        <v>3.7323906889999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>0.40677198599999997</v>
+      </c>
+      <c r="C54">
+        <v>0.40677198599999997</v>
+      </c>
+      <c r="D54">
+        <v>0.40677198599999997</v>
+      </c>
+      <c r="E54">
+        <v>0.40677198599999997</v>
+      </c>
+      <c r="F54">
+        <v>0.40677198599999997</v>
+      </c>
+      <c r="G54">
+        <v>0.40677198599999997</v>
+      </c>
+      <c r="H54">
+        <v>0.40677198599999997</v>
+      </c>
+      <c r="I54">
+        <v>0.40677198599999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <v>254.774</v>
+      </c>
+      <c r="C55">
+        <v>254.774</v>
+      </c>
+      <c r="D55">
+        <v>254.774</v>
+      </c>
+      <c r="E55">
+        <v>254.774</v>
+      </c>
+      <c r="F55">
+        <v>254.774</v>
+      </c>
+      <c r="G55">
+        <v>254.774</v>
+      </c>
+      <c r="H55">
+        <v>254.774</v>
+      </c>
+      <c r="I55">
+        <v>254.774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56">
+        <v>150</v>
+      </c>
+      <c r="C56">
+        <v>150</v>
+      </c>
+      <c r="D56">
+        <v>150</v>
+      </c>
+      <c r="E56">
+        <v>150</v>
+      </c>
+      <c r="F56">
+        <v>150</v>
+      </c>
+      <c r="G56">
+        <v>150</v>
+      </c>
+      <c r="H56">
+        <v>150</v>
+      </c>
+      <c r="I56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50">
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>56</v>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
